--- a/Spells/Grimoire_of_the_Elements.xlsx
+++ b/Spells/Grimoire_of_the_Elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawnguardian/Documents/DnD/Dungeons_and_Dragons/Spells/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawn/Documents/Games/Dawn_Brewery/Spells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA0C72-51E0-4542-B7AB-E11F1405C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF9868-C1C8-AD4C-8C19-26EE78607104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{A8CBFAA0-38E9-42D3-9B02-B3E61639D862}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{A8CBFAA0-38E9-42D3-9B02-B3E61639D862}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantrip" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="168">
   <si>
     <t>Original Spell</t>
   </si>
@@ -89,7 +89,454 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Classes</t>
+    <t>Acid Splash</t>
+  </si>
+  <si>
+    <t>1d8</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>SCAG</t>
+  </si>
+  <si>
+    <t>Booming Blade</t>
+  </si>
+  <si>
+    <t>Cast Time</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>Chill Touch</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>EVO</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Rng</t>
+  </si>
+  <si>
+    <t>Extra Effect</t>
+  </si>
+  <si>
+    <t>Fire Bolt</t>
+  </si>
+  <si>
+    <t>1d10</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>1d6</t>
+  </si>
+  <si>
+    <t>Ignites objects</t>
+  </si>
+  <si>
+    <t>Green-flame Blade</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>Lightning Lure</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>0/15</t>
+  </si>
+  <si>
+    <t>Mind Sliver</t>
+  </si>
+  <si>
+    <t>ENC</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Save debuff</t>
+  </si>
+  <si>
+    <t>TCoE</t>
+  </si>
+  <si>
+    <t>Poison Spray</t>
+  </si>
+  <si>
+    <t>1d12</t>
+  </si>
+  <si>
+    <t>Ray of Frost</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Shocking Grsap</t>
+  </si>
+  <si>
+    <t>Sword Burst</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Thunderclap</t>
+  </si>
+  <si>
+    <t>Burning Hands</t>
+  </si>
+  <si>
+    <t>0/15Co</t>
+  </si>
+  <si>
+    <t>3d6</t>
+  </si>
+  <si>
+    <t>RotFm</t>
+  </si>
+  <si>
+    <t>Frost Fingers</t>
+  </si>
+  <si>
+    <t>2d8</t>
+  </si>
+  <si>
+    <t>Freeze liquids</t>
+  </si>
+  <si>
+    <t>Ice Knife</t>
+  </si>
+  <si>
+    <t>60/5Sp</t>
+  </si>
+  <si>
+    <t>Rng/DEX</t>
+  </si>
+  <si>
+    <t>Piercing/Cold</t>
+  </si>
+  <si>
+    <t>Dmg on willing movement</t>
+  </si>
+  <si>
+    <t>HP recov stunted</t>
+  </si>
+  <si>
+    <t>Disadv on next atk</t>
+  </si>
+  <si>
+    <t>Sec target affected</t>
+  </si>
+  <si>
+    <t>Spd debuff</t>
+  </si>
+  <si>
+    <t>React stunted</t>
+  </si>
+  <si>
+    <t>Noise to 100ft</t>
+  </si>
+  <si>
+    <t>Projectile atk then explodes</t>
+  </si>
+  <si>
+    <t>Magic Missle</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>3 x (1d4 + 1)</t>
+  </si>
+  <si>
+    <t>PHB</t>
+  </si>
+  <si>
+    <t>Ray of Sickness</t>
+  </si>
+  <si>
+    <t>CON save against poison</t>
+  </si>
+  <si>
+    <t>Tasha's Caustic Brew</t>
+  </si>
+  <si>
+    <t>1Min</t>
+  </si>
+  <si>
+    <t>0/30Li</t>
+  </si>
+  <si>
+    <t>2d4 EoT</t>
+  </si>
+  <si>
+    <t>Acid can be scraped off</t>
+  </si>
+  <si>
+    <t>Thunderwave</t>
+  </si>
+  <si>
+    <t>0/15Cu</t>
+  </si>
+  <si>
+    <t>Noise to 300ft, 10ft push</t>
+  </si>
+  <si>
+    <t>Witch Bolt</t>
+  </si>
+  <si>
+    <t>Acid Arrow</t>
+  </si>
+  <si>
+    <t>4d4 + 2d4 EoT</t>
+  </si>
+  <si>
+    <t>Aganazzar's Scorcher</t>
+  </si>
+  <si>
+    <t>3d8</t>
+  </si>
+  <si>
+    <t>Flaming Sphere</t>
+  </si>
+  <si>
+    <t>2d6</t>
+  </si>
+  <si>
+    <t>Scorching Ray</t>
+  </si>
+  <si>
+    <t>3 x 2d6</t>
+  </si>
+  <si>
+    <t>XGtE</t>
+  </si>
+  <si>
+    <t>Shadow Blade</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>1BA</t>
+  </si>
+  <si>
+    <t>You get a sword</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>60/10Sp</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>150/20Sp</t>
+  </si>
+  <si>
+    <t>8d6</t>
+  </si>
+  <si>
+    <t>Flame Arrows</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>1Hr</t>
+  </si>
+  <si>
+    <t>+ 1d6</t>
+  </si>
+  <si>
+    <t>12 arrows</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>0/100Li</t>
+  </si>
+  <si>
+    <t>Melf's Minute Meteors</t>
+  </si>
+  <si>
+    <t>10Min</t>
+  </si>
+  <si>
+    <t>0/120</t>
+  </si>
+  <si>
+    <t>6 x 2d6</t>
+  </si>
+  <si>
+    <t>Thunder Step</t>
+  </si>
+  <si>
+    <t>3d10</t>
+  </si>
+  <si>
+    <t>Noise to 300ft</t>
+  </si>
+  <si>
+    <t>Fire Shield</t>
+  </si>
+  <si>
+    <t>Fire&lt;&gt;Cold</t>
+  </si>
+  <si>
+    <t>Vitriolic Sphere</t>
+  </si>
+  <si>
+    <t>10d4 + 5d4 EoT</t>
+  </si>
+  <si>
+    <t>Cone of Cold</t>
+  </si>
+  <si>
+    <t>0/60Co</t>
+  </si>
+  <si>
+    <t>8d8</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>60/30Cy</t>
+  </si>
+  <si>
+    <t>4d10</t>
+  </si>
+  <si>
+    <t>Immolation</t>
+  </si>
+  <si>
+    <t>8d6 + 4d6 EoT</t>
+  </si>
+  <si>
+    <t>Steel Wind Strike</t>
+  </si>
+  <si>
+    <t>5 x 6d10</t>
+  </si>
+  <si>
+    <t>Chain Lightning</t>
+  </si>
+  <si>
+    <t>150/30</t>
+  </si>
+  <si>
+    <t>(1 + 3) x 10d8</t>
+  </si>
+  <si>
+    <t>Freezing Sphere</t>
+  </si>
+  <si>
+    <t>Ins/1Min</t>
+  </si>
+  <si>
+    <t>300/60Sp</t>
+  </si>
+  <si>
+    <t>10d6</t>
+  </si>
+  <si>
+    <t>Sunbeam</t>
+  </si>
+  <si>
+    <t>0/60Li</t>
+  </si>
+  <si>
+    <t>6d8</t>
+  </si>
+  <si>
+    <t>Crown of Stars</t>
+  </si>
+  <si>
+    <t>Delayed Blast Fireball</t>
+  </si>
+  <si>
+    <t>7 x 4d12</t>
+  </si>
+  <si>
+    <t>12d6 + (R x 1d6)</t>
+  </si>
+  <si>
+    <t>Incindiary Cloud</t>
+  </si>
+  <si>
+    <t>10d8</t>
+  </si>
+  <si>
+    <t>Sunburst</t>
+  </si>
+  <si>
+    <t>Meteor Swarm</t>
+  </si>
+  <si>
+    <t>150/60Sp</t>
+  </si>
+  <si>
+    <t>12d6</t>
+  </si>
+  <si>
+    <t>Blinded</t>
+  </si>
+  <si>
+    <t>1mile/40Sp</t>
+  </si>
+  <si>
+    <t>4 x (20d6 + 20d6)</t>
+  </si>
+  <si>
+    <t>Fire/Bludgeoning</t>
+  </si>
+  <si>
+    <t>1d10 + 2d6</t>
   </si>
 </sst>
 </file>
@@ -138,12 +585,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,76 +915,1636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4DC40-1824-4829-B516-F72E98CB7495}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="2" customWidth="1"/>
-    <col min="7" max="19" width="13.83203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" style="2" customWidth="1"/>
+    <col min="12" max="24" width="27.33203125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6">
+        <v>120</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6">
+        <v>120</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6">
+        <v>120</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6">
+        <v>60</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="6">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="6">
+        <v>90</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="6">
+        <v>90</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="6">
+        <v>90</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="6">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="4">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
+      <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
